--- a/doc/数据格式/产品字段.xlsx
+++ b/doc/数据格式/产品字段.xlsx
@@ -128,14 +128,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>行政许可检验受理编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>送人体检验时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,23 +140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>人体检验受理编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取报告</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>送风险检验时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,19 +153,6 @@
   </si>
   <si>
     <t>风险检验受理编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取报告</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -552,6 +514,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>产品负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>在华责任单位传真</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -560,15 +534,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可检验项目</t>
+    <t>行政许可检验受理编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验取报告时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验受理编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体检验取报告时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险检验取报告时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,15 +1054,19 @@
     <col min="26" max="26" width="19" customWidth="1"/>
     <col min="27" max="27" width="18" customWidth="1"/>
     <col min="28" max="29" width="13.875" customWidth="1"/>
+    <col min="30" max="30" width="18.625" customWidth="1"/>
+    <col min="31" max="31" width="19.5" customWidth="1"/>
+    <col min="32" max="32" width="22.375" customWidth="1"/>
     <col min="33" max="33" width="13.5" customWidth="1"/>
     <col min="34" max="34" width="17.25" customWidth="1"/>
     <col min="35" max="35" width="16.375" customWidth="1"/>
     <col min="36" max="36" width="19" customWidth="1"/>
     <col min="37" max="37" width="16.125" customWidth="1"/>
-    <col min="38" max="38" width="15.875" customWidth="1"/>
+    <col min="38" max="38" width="22.625" customWidth="1"/>
     <col min="39" max="40" width="15.625" customWidth="1"/>
     <col min="41" max="42" width="18.25" customWidth="1"/>
     <col min="43" max="43" width="23.25" customWidth="1"/>
+    <col min="44" max="44" width="22.125" customWidth="1"/>
     <col min="56" max="56" width="26.5" customWidth="1"/>
     <col min="57" max="57" width="23.75" customWidth="1"/>
   </cols>
@@ -1102,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1111,34 +1097,34 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
@@ -1165,10 +1151,10 @@
         <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>16</v>
@@ -1177,114 +1163,114 @@
         <v>17</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AZ1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BB1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BF1" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="BF1" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1292,7 +1278,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1338,36 +1324,36 @@
     </row>
     <row r="3" spans="1:58" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1413,38 +1399,38 @@
     </row>
     <row r="4" spans="1:58" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1494,36 +1480,36 @@
     </row>
     <row r="5" spans="1:58" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1569,28 +1555,28 @@
     </row>
     <row r="6" spans="1:58" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1598,7 +1584,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1644,36 +1630,36 @@
     </row>
     <row r="7" spans="1:58" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1719,36 +1705,36 @@
     </row>
     <row r="8" spans="1:58" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1794,36 +1780,36 @@
     </row>
     <row r="9" spans="1:58" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1869,36 +1855,36 @@
     </row>
     <row r="10" spans="1:58" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1944,36 +1930,36 @@
     </row>
     <row r="11" spans="1:58" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
